--- a/medicine/Psychotrope/Capsule_(bouteille)/Capsule_(bouteille).xlsx
+++ b/medicine/Psychotrope/Capsule_(bouteille)/Capsule_(bouteille).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les capsules ou capsule-couronne[1] sont de petits objets circulaires utilisés pour boucher hermétiquement les bouteilles de verre.
+Les capsules ou capsule-couronne sont de petits objets circulaires utilisés pour boucher hermétiquement les bouteilles de verre.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Invention</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces capsules ont été inventées en 1892 par William Painter, le fondateur de la société Crown Cork and Seal qui est aujourd’hui le premier fabricant mondial d'emballages métalliques[réf. souhaitée]. Par leur facilité d'utilisation, les capsules ont révolutionné l'industrie de l'embouteillage. À la fin du XIXe, la bouteille en verre était pour l'essentiel consignée et la capsule est l'une des expressions notables de la société de consommation de par son usage unique[réf. souhaitée].
 Les capsules sont fabriquées en fer-blanc épais ou en acier inox (dans les caves de champagne), de 0,21 à 0 27mm[réf. nécessaire], et peuvent être décorées à l'extérieur du logo de la marque de la boisson. Un joint déposé à l'intérieur assure l'étanchéité de la bouteille.
@@ -545,10 +559,12 @@
           <t>Innovations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>capsule à vis, qui peut être ôtée simplement en la dévissant. Cette capsule vissée permet aussi de refermer la bouteille si elle n'est pas entièrement vidée. Ce type de fermeture est largement répandu mais il existe toujours des fabricants produisant des bouteilles avec capsules classiques.
-La capsule à dégoupiller. Apparue vers 2005, avec les bouteilles en aluminium de Coca-Cola BlāK[2], elle comporte un anneau serti sur son rebord qui permet de déchirer le métal et de dégager la capsule jetable.</t>
+La capsule à dégoupiller. Apparue vers 2005, avec les bouteilles en aluminium de Coca-Cola BlāK, elle comporte un anneau serti sur son rebord qui permet de déchirer le métal et de dégager la capsule jetable.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Collections, jeux et détournements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collectionneurs de capsules de bière sont des cervacapsulophiles et leur pratique est la cervacapsulophilie.
 Il existe de nombreux sites internet pour ces collectionneurs ainsi que d'innombrables bricolages et jeux de bar utilisant des capsules usagées. Dans les régions chaudes, on voit parfois des carrefours proches des terrasses de café où le bitume est entièrement recouvert de capsules noyées dans le revêtement.
